--- a/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_极光组.xlsx
+++ b/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="175">
   <si>
     <t>No</t>
   </si>
@@ -292,6 +292,351 @@
   </si>
   <si>
     <t>partnerPc、partnerApp、</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉退保证金的定时器放到同步还款定时器中</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交贷款申请到拉卡拉</t>
+  </si>
+  <si>
+    <t>获取拉卡拉合同审核状态</t>
+  </si>
+  <si>
+    <t>租金借款逾期触发提醒</t>
+  </si>
+  <si>
+    <t>买回定时器（聚有财）</t>
+  </si>
+  <si>
+    <t>租客还款逾期，给房东发送短信和推送（聚有财）</t>
+  </si>
+  <si>
+    <t>和第三方同步合同关闭状态（聚有财）</t>
+  </si>
+  <si>
+    <t>同步租客账单还款状态定时器</t>
+  </si>
+  <si>
+    <t>蘑菇宝同步资方审批状态</t>
+  </si>
+  <si>
+    <t>蘑菇宝同步资方放款状态</t>
+  </si>
+  <si>
+    <t>额度计算</t>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>crontab</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.bs.job.CronExecutor</t>
+  </si>
+  <si>
+    <t>loan_submitinfo.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每隔10分钟执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>crontab</t>
+  </si>
+  <si>
+    <t>loan_synccontract.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔20分钟执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_landlord_msg.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日8:30分执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>loopDealWithBuyBackTask.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日6点执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgWhenLoanOverDueTask.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日8点执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>syncContractEndStatus.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日4点执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.bs.job.CronExecutor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>syncJycRenterBillStatus.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>syncApproveStatusTask.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncLendingStatus.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaculateLandlordCreditsTask.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日5点执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitLoanInfoTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncContractStatusTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgWhenLoanDuedateTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoopDealWithBuyBackTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgWhenLoanOverDueTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncContractEndStatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncJycRenterBillStatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncApproveStatusTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncLendingStatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaculateLandlordCreditsTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelMonthlyPayTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoRepayMonthlyPayWhenDueDate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量取消超时的蘑菇宝月付申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelMonthlyPayTask.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝月付账单，逾期日自动请求代扣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoRepayMonthlyPayWhenDueDate.sh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CancelMonthlyPayTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10分钟一次</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.AutoRepayMonthlyPayWhenDueDate"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天9点一次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SubmitLoanInfoTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncContractStatusTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgWhenLoanDuedateTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoopDealWithBuyBackTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgWhenLoanOverDueTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncContractEndStatus"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncJycRenterBillStatus"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncApproveStatusTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncLendingStatus"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SubmitLoanInfoTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncContractStatusTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgWhenLoanDuedateTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoopDealWithBuyBackTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgWhenLoanOverDueTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncContractEndStatus</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncJycRenterBillStatus</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncApproveStatusTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncLendingStatus</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CancelMonthlyPayTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.AutoRepayMonthlyPayWhenDueDate</t>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金宝保证金处理</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TransferDepositToLandlordTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferDepositToLandlordTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TransferDepositToLandlordTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1点执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -467,23 +812,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -552,8 +884,14 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +942,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,14 +1128,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,167 +1325,158 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="27" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1591,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1708,13 +2049,13 @@
       <c r="G2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="97">
         <v>42704</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="97">
         <v>42704</v>
       </c>
       <c r="K2" s="38"/>
@@ -1728,7 +2069,7 @@
         <v>76</v>
       </c>
       <c r="O2" s="47"/>
-      <c r="P2" s="107"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
       <c r="S2" s="44"/>
@@ -1737,7 +2078,7 @@
       <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" s="31" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A3" s="80">
+      <c r="A3" s="70">
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1746,7 +2087,7 @@
       <c r="C3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="96" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -1758,13 +2099,13 @@
       <c r="G3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="107">
+      <c r="H3" s="97">
         <v>42704</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="107">
+      <c r="J3" s="97">
         <v>42704</v>
       </c>
       <c r="K3" s="38"/>
@@ -1780,14 +2121,14 @@
       <c r="O3" s="44"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
       <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="36.75" customHeight="1">
-      <c r="A4" s="80">
+      <c r="A4" s="70">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1808,13 +2149,13 @@
       <c r="G4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="97">
         <v>42730</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="107">
+      <c r="J4" s="97">
         <v>42730</v>
       </c>
       <c r="K4" s="38"/>
@@ -1835,21 +2176,47 @@
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
-      <c r="A5" s="80"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+    <row r="5" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A5" s="70">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="97">
+        <v>42704</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="97">
+        <v>42704</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="92"/>
+      <c r="L5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
@@ -1859,7 +2226,7 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A6" s="80"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="50"/>
@@ -1872,17 +2239,17 @@
       <c r="K6" s="38"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
-      <c r="N6" s="92"/>
+      <c r="N6" s="82"/>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
-      <c r="Q6" s="94"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:22" s="89" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="70"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="50"/>
@@ -1890,23 +2257,23 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="95"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="39"/>
       <c r="K7" s="36"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
-      <c r="N7" s="92"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="44"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="88"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="50"/>
@@ -1917,19 +2284,19 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="100"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="47"/>
-      <c r="N8" s="92"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="44"/>
       <c r="P8" s="39"/>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="84"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="80"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="50"/>
@@ -1942,274 +2309,274 @@
       <c r="K9" s="38"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
-      <c r="N9" s="92"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="44"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="94"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="85"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="75"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="104"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A11" s="80"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="85"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="75"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="105"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="43"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="87"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="47"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="86"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="76"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="87"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="86"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="76"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:22" ht="16.5">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="87"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="86"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="76"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="67"/>
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="51"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="51"/>
     </row>
     <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="49"/>
-      <c r="U17" s="78"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="51"/>
     </row>
     <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="49"/>
-      <c r="U18" s="78"/>
+      <c r="U18" s="68"/>
       <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="49"/>
-      <c r="U19" s="78"/>
+      <c r="U19" s="68"/>
       <c r="V19" s="51"/>
     </row>
     <row r="20" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="67"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="78"/>
+      <c r="U20" s="68"/>
       <c r="V20" s="51"/>
     </row>
     <row r="21" spans="1:22" ht="16.5">
@@ -5566,23 +5933,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
@@ -5650,63 +6018,1107 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="B3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="108"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="B4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="108"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5">
+      <c r="B5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="108"/>
+    </row>
+    <row r="6" spans="1:18" ht="33">
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="108"/>
+    </row>
+    <row r="7" spans="1:18" ht="33">
+      <c r="B7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="108"/>
+    </row>
+    <row r="8" spans="1:18" ht="33">
+      <c r="B8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="108"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5">
+      <c r="B9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="108"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5">
+      <c r="B10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="108"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5">
+      <c r="B11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="108"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5">
+      <c r="B12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5">
+      <c r="B13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" s="110" customFormat="1" ht="33">
+      <c r="B14" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+    </row>
+    <row r="15" spans="1:18" ht="33">
+      <c r="B15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="108"/>
+    </row>
+    <row r="16" spans="1:18" ht="33">
+      <c r="B16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="108"/>
+    </row>
+    <row r="17" spans="2:18" ht="33">
+      <c r="B17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="108"/>
+    </row>
+    <row r="18" spans="2:18" ht="33">
+      <c r="B18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="108"/>
+    </row>
+    <row r="19" spans="2:18" ht="33">
+      <c r="B19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="108"/>
+    </row>
+    <row r="20" spans="2:18" ht="33">
+      <c r="B20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="108"/>
+    </row>
+    <row r="21" spans="2:18" ht="33">
+      <c r="B21" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="108"/>
+    </row>
+    <row r="22" spans="2:18" ht="33">
+      <c r="B22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="108"/>
+    </row>
+    <row r="23" spans="2:18" ht="33">
+      <c r="B23" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="N23" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="108"/>
+    </row>
+    <row r="24" spans="2:18" ht="33">
+      <c r="B24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="108"/>
+    </row>
+    <row r="25" spans="2:18" ht="33">
+      <c r="B25" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="2:18" ht="33">
+      <c r="B26" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5735,19 +7147,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5785,8 +7197,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5798,8 +7210,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5811,8 +7223,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5824,8 +7236,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5837,8 +7249,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5850,8 +7262,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5863,8 +7275,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5876,8 +7288,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5938,36 +7350,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6252,36 +7664,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6324,11 +7736,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6339,35 +7751,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6566,36 +7978,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6638,11 +8050,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6653,35 +8065,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6882,36 +8294,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6954,11 +8366,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6969,35 +8381,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>

--- a/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_极光组.xlsx
+++ b/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_极光组.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.9.3 新特性|Fix Bug'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -637,6 +637,22 @@
   </si>
   <si>
     <t>删除</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed-fe</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改资料保存防止重复提交</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王园</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1430,6 +1446,27 @@
     <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,27 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1932,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,21 +2241,47 @@
       <c r="T5" s="44"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+    <row r="6" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="97">
+        <v>42730</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="97">
+        <v>42730</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="82"/>
+      <c r="L6" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="84"/>
@@ -5907,7 +5949,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5935,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6022,41 +6064,41 @@
         <v>95</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="108"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="108"/>
+      <c r="R2" s="99"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
@@ -6064,41 +6106,41 @@
         <v>100</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108" t="s">
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="108"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="108"/>
+      <c r="R3" s="99"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
@@ -6106,361 +6148,361 @@
         <v>100</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="108"/>
+      <c r="P4" s="99"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="108"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="B5" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108" t="s">
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="108"/>
+      <c r="P5" s="99"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="108"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="6" spans="1:18" ht="33">
       <c r="B6" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108" t="s">
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="108" t="s">
+      <c r="O6" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="108"/>
+      <c r="P6" s="99"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="108"/>
+      <c r="R6" s="99"/>
     </row>
     <row r="7" spans="1:18" ht="33">
       <c r="B7" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108" t="s">
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="108"/>
+      <c r="P7" s="99"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="108"/>
+      <c r="R7" s="99"/>
     </row>
     <row r="8" spans="1:18" ht="33">
       <c r="B8" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108" t="s">
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="108"/>
+      <c r="P8" s="99"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="108"/>
+      <c r="R8" s="99"/>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="B9" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="113" t="s">
+      <c r="H9" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="108" t="s">
+      <c r="K9" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108" t="s">
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="108" t="s">
+      <c r="O9" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="108"/>
+      <c r="P9" s="99"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="108"/>
+      <c r="R9" s="99"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="B10" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108" t="s">
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="108" t="s">
+      <c r="O10" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P10" s="108"/>
+      <c r="P10" s="99"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="108"/>
+      <c r="R10" s="99"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
       <c r="B11" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108" t="s">
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="108"/>
+      <c r="P11" s="99"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="108"/>
+      <c r="R11" s="99"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="B12" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="100" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="99" t="s">
         <v>96</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>139</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108" t="s">
+      <c r="M12" s="99"/>
+      <c r="N12" s="99" t="s">
         <v>98</v>
       </c>
       <c r="O12" s="11" t="s">
@@ -6475,33 +6517,33 @@
         <v>100</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="100" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="99" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>141</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108" t="s">
+      <c r="M13" s="99"/>
+      <c r="N13" s="99" t="s">
         <v>98</v>
       </c>
       <c r="O13" s="11" t="s">
@@ -6511,50 +6553,50 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="110" customFormat="1" ht="33">
-      <c r="B14" s="111" t="s">
+    <row r="14" spans="1:18" s="101" customFormat="1" ht="33">
+      <c r="B14" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108" t="s">
+      <c r="K14" s="99"/>
+      <c r="L14" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="108" t="s">
+      <c r="N14" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
     </row>
     <row r="15" spans="1:18" ht="33">
       <c r="B15" s="17" t="s">
@@ -6563,45 +6605,45 @@
       <c r="C15" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="108" t="s">
+      <c r="K15" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="108" t="s">
+      <c r="N15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="108"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="108"/>
+      <c r="R15" s="99"/>
     </row>
     <row r="16" spans="1:18" ht="33">
       <c r="B16" s="17" t="s">
@@ -6610,45 +6652,45 @@
       <c r="C16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="108" t="s">
+      <c r="J16" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="108" t="s">
+      <c r="K16" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="108" t="s">
+      <c r="L16" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="N16" s="108" t="s">
+      <c r="N16" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="108" t="s">
+      <c r="O16" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="108"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="108"/>
+      <c r="R16" s="99"/>
     </row>
     <row r="17" spans="2:18" ht="33">
       <c r="B17" s="17" t="s">
@@ -6657,45 +6699,45 @@
       <c r="C17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="108" t="s">
+      <c r="K17" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="108" t="s">
+      <c r="L17" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="108" t="s">
+      <c r="M17" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="108" t="s">
+      <c r="N17" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="108"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="108"/>
+      <c r="R17" s="99"/>
     </row>
     <row r="18" spans="2:18" ht="33">
       <c r="B18" s="17" t="s">
@@ -6704,45 +6746,45 @@
       <c r="C18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="108" t="s">
+      <c r="K18" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="108" t="s">
+      <c r="L18" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O18" s="108" t="s">
+      <c r="O18" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="P18" s="108"/>
+      <c r="P18" s="99"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="108"/>
+      <c r="R18" s="99"/>
     </row>
     <row r="19" spans="2:18" ht="33">
       <c r="B19" s="17" t="s">
@@ -6751,45 +6793,45 @@
       <c r="C19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="108" t="s">
+      <c r="I19" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="108" t="s">
+      <c r="K19" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="108" t="s">
+      <c r="L19" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="108" t="s">
+      <c r="M19" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="N19" s="108" t="s">
+      <c r="N19" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O19" s="108" t="s">
+      <c r="O19" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="108"/>
+      <c r="P19" s="99"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="108"/>
+      <c r="R19" s="99"/>
     </row>
     <row r="20" spans="2:18" ht="33">
       <c r="B20" s="17" t="s">
@@ -6798,45 +6840,45 @@
       <c r="C20" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="108" t="s">
+      <c r="G20" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="108" t="s">
+      <c r="J20" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="108" t="s">
+      <c r="L20" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="N20" s="108" t="s">
+      <c r="N20" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="108" t="s">
+      <c r="O20" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="108"/>
+      <c r="P20" s="99"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="108"/>
+      <c r="R20" s="99"/>
     </row>
     <row r="21" spans="2:18" ht="33">
       <c r="B21" s="17" t="s">
@@ -6845,45 +6887,45 @@
       <c r="C21" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="108" t="s">
+      <c r="E21" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="108" t="s">
+      <c r="I21" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="108" t="s">
+      <c r="L21" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="108" t="s">
+      <c r="M21" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="108" t="s">
+      <c r="N21" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="108" t="s">
+      <c r="O21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="108"/>
+      <c r="P21" s="99"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="108"/>
+      <c r="R21" s="99"/>
     </row>
     <row r="22" spans="2:18" ht="33">
       <c r="B22" s="17" t="s">
@@ -6892,45 +6934,45 @@
       <c r="C22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="108" t="s">
+      <c r="E22" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J22" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="108" t="s">
+      <c r="K22" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="L22" s="108" t="s">
+      <c r="L22" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="108" t="s">
+      <c r="M22" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="N22" s="108" t="s">
+      <c r="N22" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O22" s="108" t="s">
+      <c r="O22" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="108"/>
+      <c r="P22" s="99"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="108"/>
+      <c r="R22" s="99"/>
     </row>
     <row r="23" spans="2:18" ht="33">
       <c r="B23" s="17" t="s">
@@ -6939,45 +6981,45 @@
       <c r="C23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="108" t="s">
+      <c r="J23" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="108" t="s">
+      <c r="K23" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="P23" s="108"/>
+      <c r="P23" s="99"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="108"/>
+      <c r="R23" s="99"/>
     </row>
     <row r="24" spans="2:18" ht="33">
       <c r="B24" s="17" t="s">
@@ -6986,45 +7028,45 @@
       <c r="C24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="108" t="s">
+      <c r="E24" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="F24" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="108" t="s">
+      <c r="I24" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="108" t="s">
+      <c r="J24" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="108" t="s">
+      <c r="K24" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="108" t="s">
+      <c r="L24" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="M24" s="108" t="s">
+      <c r="M24" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="N24" s="108" t="s">
+      <c r="N24" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O24" s="108" t="s">
+      <c r="O24" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="108"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="108"/>
+      <c r="R24" s="99"/>
     </row>
     <row r="25" spans="2:18" ht="33">
       <c r="B25" s="17" t="s">
@@ -7033,25 +7075,25 @@
       <c r="C25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="100" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="108" t="s">
+      <c r="I25" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="108" t="s">
+      <c r="J25" s="99" t="s">
         <v>166</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -7060,10 +7102,10 @@
       <c r="L25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="M25" s="108" t="s">
+      <c r="M25" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="N25" s="108" t="s">
+      <c r="N25" s="99" t="s">
         <v>98</v>
       </c>
       <c r="O25" s="11" t="s">
@@ -7080,25 +7122,25 @@
       <c r="C26" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="100" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="108" t="s">
+      <c r="I26" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="108" t="s">
+      <c r="J26" s="99" t="s">
         <v>167</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -7107,10 +7149,10 @@
       <c r="L26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M26" s="108" t="s">
+      <c r="M26" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="N26" s="108" t="s">
+      <c r="N26" s="99" t="s">
         <v>98</v>
       </c>
       <c r="O26" s="11" t="s">
@@ -7147,19 +7189,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -7197,8 +7239,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -7210,8 +7252,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7223,8 +7265,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7236,8 +7278,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7249,8 +7291,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7262,8 +7304,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7275,8 +7317,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -7288,8 +7330,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7350,36 +7392,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7664,36 +7706,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7978,36 +8020,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -8294,36 +8336,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
